--- a/output_camilacabello.xlsx
+++ b/output_camilacabello.xlsx
@@ -14,27 +14,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
-  <si>
-    <t>13/03/2019</t>
-  </si>
-  <si>
-    <t>44</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
+  <si>
+    <t>canada</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>Camila Cabello</t>
   </si>
   <si>
-    <t>15/03/2019</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>12/03/2019</t>
+    <t>none</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>ecuador</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>guayaquil</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>argentina</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>california</t>
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>united states</t>
+  </si>
+  <si>
+    <t>london</t>
+  </si>
+  <si>
+    <t>england</t>
+  </si>
+  <si>
+    <t>colombia</t>
+  </si>
+  <si>
+    <t>talcahuano</t>
+  </si>
+  <si>
+    <t>chile</t>
+  </si>
+  <si>
+    <t>brasil</t>
   </si>
 </sst>
 </file>
@@ -366,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,6 +444,116 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
